--- a/repo tienda master/entrega1MercevichFabing/documental test.xlsx
+++ b/repo tienda master/entrega1MercevichFabing/documental test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>tienda</t>
   </si>
@@ -134,13 +134,46 @@
     <t>Chrome/Avast Secure Browser</t>
   </si>
   <si>
-    <t>se hicieron pruebas en 2 apss distintas de win 10/ se probo en 2 apps de andoid</t>
-  </si>
-  <si>
     <t>Versión 103.0.5060.114 (Build oficial) (64 bits)/Versión 103.0.17593.114 (Build oficial) (64 bits)</t>
   </si>
   <si>
     <t>Documental Testing</t>
+  </si>
+  <si>
+    <t>testeo de link de tienda</t>
+  </si>
+  <si>
+    <t>testeos agregar productos en tienda</t>
+  </si>
+  <si>
+    <t>testeos editar productos en tienda</t>
+  </si>
+  <si>
+    <t>testeos eliminar productos en tienda</t>
+  </si>
+  <si>
+    <t>testeos comprar productos en tienda</t>
+  </si>
+  <si>
+    <t>funcionmiento y redireccion a los lugares correctos</t>
+  </si>
+  <si>
+    <t>funcionan correctamente</t>
+  </si>
+  <si>
+    <t>tecnologia = roto / resto funciona correctamente</t>
+  </si>
+  <si>
+    <t>casco =  roto / tecnologia = roto / resto funcionan correctamente</t>
+  </si>
+  <si>
+    <t>agregado de formulario_tecnologia.html</t>
+  </si>
+  <si>
+    <t>correciones template y  vista, error de sintacsis agregado de formulario_tecnologia.html</t>
+  </si>
+  <si>
+    <t>se hicieron pruebas en 2 apss distintas de win 10</t>
   </si>
 </sst>
 </file>
@@ -170,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -417,34 +450,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -592,6 +597,54 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -599,64 +652,52 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -665,6 +706,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,31 +751,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -983,13 +1069,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" customWidth="1"/>
     <col min="5" max="5" width="59.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -998,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1006,260 +1094,383 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="43" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="44" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="6"/>
+      <c r="F4" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="44" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
+      <c r="F5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="45" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <v>1</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="40">
         <v>44754</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="18">
         <v>44755</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="19">
+        <v>44755</v>
+      </c>
+      <c r="I10" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="19">
+        <v>44755</v>
+      </c>
+      <c r="I11" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="19">
+        <v>44755</v>
+      </c>
+      <c r="I12" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="19">
+        <v>44755</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="20">
+        <v>44755</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="40"/>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="28">
+        <v>2</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44759</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="18">
+        <v>44759</v>
+      </c>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="19">
+        <v>44759</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="19">
+        <v>44759</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="19">
+        <v>44759</v>
+      </c>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20">
+        <v>44759</v>
+      </c>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F4:I4"/>
+  <mergeCells count="12">
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="B3:D3"/>
@@ -1268,6 +1479,10 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
